--- a/RUDN/Importance/Varible_reg_in_Northern Africa.xlsx
+++ b/RUDN/Importance/Varible_reg_in_Northern Africa.xlsx
@@ -14,735 +14,867 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
   <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
+    <t>CO2 emissions (kt)</t>
   </si>
   <si>
     <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Health expenditure, public (% of GDP)</t>
   </si>
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Children out of school, primary, female</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, female, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Years</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 12, male, interpolated</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, male, interpolated</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
   </si>
   <si>
     <t>Primary completion rate, total (% of relevant age group)</t>
   </si>
   <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>GNI per capita, PPP (current international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
+    <t>School enrollment, secondary, female (% gross)</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B244"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05484693869948387</v>
+        <v>0.05397148802876472</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1124,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04783163219690323</v>
+        <v>0.05363204330205917</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1132,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0401785708963871</v>
+        <v>0.04276985675096512</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1140,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02869897894561291</v>
+        <v>0.03394433110952377</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1148,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02423469349741936</v>
+        <v>0.02817379496991634</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1156,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.02295918390154839</v>
+        <v>0.02376103214919567</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1164,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01977040804922581</v>
+        <v>0.01561439223587513</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1172,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01849489845335484</v>
+        <v>0.01561439223587513</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1180,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.01785714365541935</v>
+        <v>0.01527494937181473</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1188,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.01785714365541935</v>
+        <v>0.01459606271237135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1196,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.01658163219690323</v>
+        <v>0.01425661891698837</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1204,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01594387739896774</v>
+        <v>0.01425661891698837</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1212,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.01339285727590322</v>
+        <v>0.01323828939348459</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1220,7 +1352,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01275510247796774</v>
+        <v>0.01255940273404121</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1228,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.01275510247796774</v>
+        <v>0.01221995893865824</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1236,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.01275510247796774</v>
+        <v>0.01120162941515446</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1244,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01275510247796774</v>
+        <v>0.01120162941515446</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1252,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01211734674870968</v>
+        <v>0.01120162941515446</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1260,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.01211734674870968</v>
+        <v>0.01086218561977148</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1268,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01147959195077419</v>
+        <v>0.0098438560962677</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1276,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01084183715283871</v>
+        <v>0.009164969436824322</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1284,7 +1416,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.009566326625645161</v>
+        <v>0.00882552657276392</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1292,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.008290816098451614</v>
+        <v>0.008486082777380943</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1300,7 +1432,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.008290816098451614</v>
+        <v>0.008146639913320541</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1308,7 +1440,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.008290816098451614</v>
+        <v>0.008146639913320541</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1316,7 +1448,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.008290816098451614</v>
+        <v>0.008146639913320541</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1324,7 +1456,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.008290816098451614</v>
+        <v>0.007807196117937565</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1332,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.008290816098451614</v>
+        <v>0.007467752788215876</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1340,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.007653061300516129</v>
+        <v>0.007128309458494186</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1348,7 +1480,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.007653061300516129</v>
+        <v>0.007128309458494186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1356,7 +1488,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.007015306036919355</v>
+        <v>0.007128309458494186</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1364,7 +1496,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.007015306036919355</v>
+        <v>0.007128309458494186</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1372,7 +1504,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.007015306036919355</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1380,7 +1512,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.007015306036919355</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1388,7 +1520,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.007015306036919355</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1396,7 +1528,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.007015306036919355</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1404,7 +1536,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.00637755123898387</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1412,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.00637755123898387</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1420,7 +1552,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.00637755123898387</v>
+        <v>0.006788866128772497</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1428,7 +1560,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.00637755123898387</v>
+        <v>0.006449422799050808</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1436,7 +1568,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.00637755123898387</v>
+        <v>0.006449422799050808</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1444,7 +1576,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.00637755123898387</v>
+        <v>0.00577053613960743</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1452,7 +1584,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.005739795975387096</v>
+        <v>0.00577053613960743</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1460,7 +1592,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.005739795975387096</v>
+        <v>0.00577053613960743</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1468,7 +1600,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.005739795975387096</v>
+        <v>0.00543109280988574</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1476,7 +1608,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.005739795975387096</v>
+        <v>0.00543109280988574</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1484,7 +1616,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.005739795975387096</v>
+        <v>0.00543109280988574</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1492,7 +1624,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.005739795975387096</v>
+        <v>0.00543109280988574</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1500,7 +1632,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.005102040711790323</v>
+        <v>0.00543109280988574</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1508,7 +1640,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.005102040711790323</v>
+        <v>0.005091649480164051</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1516,7 +1648,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.005102040711790323</v>
+        <v>0.005091649480164051</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1524,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.005102040711790323</v>
+        <v>0.004752206150442362</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1532,7 +1664,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.005102040711790323</v>
+        <v>0.004752206150442362</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1540,7 +1672,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.005102040711790323</v>
+        <v>0.004752206150442362</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1548,7 +1680,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.005102040711790323</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1556,7 +1688,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.005102040711790323</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1564,7 +1696,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.005102040711790323</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1572,7 +1704,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1580,7 +1712,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1588,7 +1720,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1596,7 +1728,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1604,7 +1736,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1612,7 +1744,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.004464285913854837</v>
+        <v>0.00441276328638196</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1620,7 +1752,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.004464285913854837</v>
+        <v>0.004073319956660271</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1628,7 +1760,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.004464285913854837</v>
+        <v>0.004073319956660271</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1636,7 +1768,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.004464285913854837</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1644,7 +1776,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.003826530650258064</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1652,7 +1784,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.003826530650258064</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1660,7 +1792,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.003826530650258064</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1668,7 +1800,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.003826530650258064</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1676,7 +1808,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.003826530650258064</v>
+        <v>0.003733876394107938</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1684,7 +1816,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.003826530650258064</v>
+        <v>0.003394433064386249</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1692,7 +1824,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.003826530650258064</v>
+        <v>0.003394433064386249</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1700,7 +1832,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.003826530650258064</v>
+        <v>0.003394433064386249</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1708,7 +1840,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.003826530650258064</v>
+        <v>0.003394433064386249</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1716,7 +1848,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.003826530650258064</v>
+        <v>0.003394433064386249</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1724,7 +1856,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1732,7 +1864,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1740,7 +1872,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1748,7 +1880,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1756,7 +1888,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1764,7 +1896,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1772,7 +1904,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1780,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1788,7 +1920,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.003188775619491935</v>
+        <v>0.003054989734664559</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1796,7 +1928,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1804,7 +1936,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1812,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1820,7 +1952,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1828,7 +1960,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1836,7 +1968,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1844,7 +1976,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003188775619491935</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1852,7 +1984,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1860,7 +1992,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1868,7 +2000,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1876,7 +2008,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1884,7 +2016,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1892,7 +2024,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.002551020355895162</v>
+        <v>0.00271554640494287</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1900,7 +2032,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1908,7 +2040,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1916,7 +2048,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1924,7 +2056,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1932,7 +2064,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1940,7 +2072,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1948,7 +2080,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1956,7 +2088,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1964,7 +2096,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1972,7 +2104,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1980,7 +2112,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1988,7 +2120,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1996,7 +2128,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2004,7 +2136,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2012,7 +2144,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.002551020355895162</v>
+        <v>0.002376103075221181</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2020,7 +2152,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.002551020355895162</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2028,7 +2160,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.002551020355895162</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2036,7 +2168,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.002551020355895162</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2044,7 +2176,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2052,7 +2184,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2060,7 +2192,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2068,7 +2200,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2076,7 +2208,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2084,7 +2216,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2092,7 +2224,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2100,7 +2232,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2108,7 +2240,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2116,7 +2248,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.001913265325129032</v>
+        <v>0.002036659978330135</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2124,7 +2256,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2132,7 +2264,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2140,7 +2272,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2148,7 +2280,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2156,7 +2288,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2164,7 +2296,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2172,7 +2304,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2180,7 +2312,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2188,7 +2320,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2196,7 +2328,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2204,7 +2336,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2212,7 +2344,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2220,7 +2352,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2228,7 +2360,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2236,7 +2368,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2244,7 +2376,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2252,7 +2384,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.001913265325129032</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2260,7 +2392,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.001275510177947581</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2268,7 +2400,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.001275510177947581</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2276,7 +2408,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.001275510177947581</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2284,7 +2416,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.001275510177947581</v>
+        <v>0.001697216532193124</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2292,7 +2424,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2300,7 +2432,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2308,7 +2440,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2316,7 +2448,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2324,7 +2456,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2332,7 +2464,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2340,7 +2472,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2348,7 +2480,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2356,7 +2488,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2364,7 +2496,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2372,7 +2504,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2380,7 +2512,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2388,7 +2520,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2396,7 +2528,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2404,7 +2536,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2412,7 +2544,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2420,7 +2552,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2428,7 +2560,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2436,7 +2568,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2444,7 +2576,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2452,7 +2584,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2460,7 +2592,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2468,7 +2600,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2476,7 +2608,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2484,7 +2616,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2492,7 +2624,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2500,7 +2632,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2508,7 +2640,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2516,7 +2648,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2524,7 +2656,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.001275510177947581</v>
+        <v>0.001357773202471435</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2532,7 +2664,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.001275510177947581</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2540,7 +2672,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2548,7 +2680,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2556,7 +2688,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2564,7 +2696,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2572,7 +2704,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2580,7 +2712,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2588,7 +2720,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2596,7 +2728,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2604,7 +2736,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2612,7 +2744,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2620,7 +2752,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2628,7 +2760,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2636,7 +2768,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2644,7 +2776,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2652,7 +2784,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2660,7 +2792,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2668,7 +2800,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2676,7 +2808,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2684,7 +2816,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2692,7 +2824,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2700,7 +2832,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2708,7 +2840,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2716,7 +2848,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2724,7 +2856,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2732,7 +2864,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2740,7 +2872,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2748,7 +2880,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2756,7 +2888,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.0006377550889737904</v>
+        <v>0.001018329989165068</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2764,7 +2896,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2772,7 +2904,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2780,7 +2912,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2788,7 +2920,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2796,7 +2928,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2804,7 +2936,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2812,7 +2944,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2820,7 +2952,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2828,7 +2960,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2836,7 +2968,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2844,7 +2976,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2852,7 +2984,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2860,7 +2992,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2868,7 +3000,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2876,7 +3008,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2884,7 +3016,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2892,7 +3024,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2900,7 +3032,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2908,7 +3040,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2916,7 +3048,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2924,7 +3056,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2932,7 +3064,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2940,7 +3072,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2948,7 +3080,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2956,7 +3088,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2964,7 +3096,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2972,7 +3104,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2980,7 +3112,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -2988,7 +3120,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -2996,7 +3128,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3004,7 +3136,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3012,7 +3144,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3020,7 +3152,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3028,7 +3160,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3036,7 +3168,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3044,7 +3176,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.0006377550889737904</v>
+        <v>0.0006788866012357175</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3052,7 +3184,359 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.0006377550889737904</v>
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>0.0003394433006178588</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>0.0003394433006178588</v>
       </c>
     </row>
   </sheetData>
